--- a/Numerologia.xlsx
+++ b/Numerologia.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTIN-Asus\Documents\NetBeansProjects\LaDolcePizza\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="198">
   <si>
     <t>Platano = 3</t>
   </si>
@@ -725,6 +720,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -737,7 +733,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,7 +793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -833,7 +828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1042,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P331"/>
+  <dimension ref="B2:Q331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H331" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J314" sqref="J314"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,10 +1051,10 @@
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="13" max="13" width="31.5703125" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" customWidth="1"/>
+    <col min="15" max="15" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -1067,8 +1062,15 @@
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>47</v>
       </c>
@@ -1090,8 +1092,17 @@
       <c r="J3">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1113,8 +1124,17 @@
       <c r="J4">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1130,8 +1150,17 @@
       <c r="J5">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>3</v>
       </c>
@@ -1147,8 +1176,17 @@
       <c r="J6">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>4</v>
       </c>
@@ -1164,8 +1202,17 @@
       <c r="J7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -1181,8 +1228,17 @@
       <c r="J8">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>6</v>
       </c>
@@ -1198,52 +1254,61 @@
       <c r="J9">
         <v>74</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>78</v>
+      </c>
+      <c r="O9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="10" t="s">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
@@ -2579,67 +2644,67 @@
       </c>
     </row>
     <row r="111" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="9"/>
-      <c r="O111" s="9"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
     </row>
     <row r="112" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="9"/>
-      <c r="O112" s="9"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="9"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="9"/>
-      <c r="O114" s="9"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
-      <c r="O116" s="11"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
     </row>
     <row r="118" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
@@ -2654,11 +2719,11 @@
       <c r="F118">
         <v>10</v>
       </c>
-      <c r="M118" s="8" t="s">
+      <c r="M118" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="N118" s="8"/>
-      <c r="O118" s="8"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
@@ -4288,7 +4353,7 @@
       <c r="N227" s="5"/>
     </row>
     <row r="231" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="M231" s="12"/>
+      <c r="M231" s="8"/>
       <c r="N231" s="7" t="s">
         <v>197</v>
       </c>
@@ -4348,7 +4413,7 @@
         <v>81</v>
       </c>
       <c r="J234">
-        <f>J121-4</f>
+        <f t="shared" ref="J234:J240" si="0">J121-4</f>
         <v>1003</v>
       </c>
       <c r="L234" t="s">
@@ -4358,7 +4423,7 @@
         <v>90</v>
       </c>
       <c r="N234">
-        <f>N122-4</f>
+        <f t="shared" ref="N234:N239" si="1">N122-4</f>
         <v>4413</v>
       </c>
     </row>
@@ -4376,7 +4441,7 @@
         <v>82</v>
       </c>
       <c r="J235">
-        <f>J122-4</f>
+        <f t="shared" si="0"/>
         <v>2103</v>
       </c>
       <c r="L235" t="s">
@@ -4386,7 +4451,7 @@
         <v>91</v>
       </c>
       <c r="N235">
-        <f>N123-4</f>
+        <f t="shared" si="1"/>
         <v>6933</v>
       </c>
     </row>
@@ -4404,7 +4469,7 @@
         <v>83</v>
       </c>
       <c r="J236">
-        <f>J123-4</f>
+        <f t="shared" si="0"/>
         <v>3303</v>
       </c>
       <c r="L236" t="s">
@@ -4414,7 +4479,7 @@
         <v>92</v>
       </c>
       <c r="N236">
-        <f>N124-4</f>
+        <f t="shared" si="1"/>
         <v>9453</v>
       </c>
     </row>
@@ -4432,7 +4497,7 @@
         <v>84</v>
       </c>
       <c r="J237">
-        <f>J124-4</f>
+        <f t="shared" si="0"/>
         <v>4503</v>
       </c>
       <c r="L237" t="s">
@@ -4442,7 +4507,7 @@
         <v>93</v>
       </c>
       <c r="N237">
-        <f>N125-4</f>
+        <f t="shared" si="1"/>
         <v>11973</v>
       </c>
     </row>
@@ -4460,7 +4525,7 @@
         <v>85</v>
       </c>
       <c r="J238">
-        <f>J125-4</f>
+        <f t="shared" si="0"/>
         <v>5703</v>
       </c>
       <c r="L238" t="s">
@@ -4470,7 +4535,7 @@
         <v>94</v>
       </c>
       <c r="N238">
-        <f>N126-4</f>
+        <f t="shared" si="1"/>
         <v>14493</v>
       </c>
     </row>
@@ -4488,7 +4553,7 @@
         <v>86</v>
       </c>
       <c r="J239">
-        <f>J126-4</f>
+        <f t="shared" si="0"/>
         <v>6903</v>
       </c>
       <c r="L239" t="s">
@@ -4498,7 +4563,7 @@
         <v>95</v>
       </c>
       <c r="N239">
-        <f>N127-4</f>
+        <f t="shared" si="1"/>
         <v>14913</v>
       </c>
     </row>
@@ -4510,7 +4575,7 @@
         <v>87</v>
       </c>
       <c r="J240">
-        <f>J127-4</f>
+        <f t="shared" si="0"/>
         <v>7103</v>
       </c>
       <c r="N240" s="2"/>
@@ -5860,7 +5925,7 @@
     <mergeCell ref="M118:O118"/>
     <mergeCell ref="D111:O114"/>
     <mergeCell ref="E13:N14"/>
-    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
     <mergeCell ref="M116:O116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Numerologia.xlsx
+++ b/Numerologia.xlsx
@@ -1040,7 +1040,7 @@
   <dimension ref="B2:Q331"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1093,7 @@
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
@@ -1151,7 +1151,7 @@
         <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M5" t="s">
         <v>27</v>
@@ -1177,7 +1177,7 @@
         <v>48</v>
       </c>
       <c r="L6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
         <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M7" t="s">
         <v>12</v>
@@ -1229,7 +1229,7 @@
         <v>72</v>
       </c>
       <c r="L8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M8" t="s">
         <v>13</v>
@@ -1255,7 +1255,7 @@
         <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
